--- a/151005-PyND-5FC_dilution_series.xlsx
+++ b/151005-PyND-5FC_dilution_series.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>stock</t>
   </si>
@@ -27,9 +27,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>2x</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -61,6 +58,21 @@
   </si>
   <si>
     <t>ml of 5-FC containing media remaining for experiment</t>
+  </si>
+  <si>
+    <t>cell od = 0.75</t>
+  </si>
+  <si>
+    <t>20ml</t>
+  </si>
+  <si>
+    <t>ml of cell solution</t>
+  </si>
+  <si>
+    <t>ml of 5-FC containing media</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -432,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -451,22 +463,22 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -480,7 +492,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -493,7 +505,7 @@
         <v>0.32</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="str">
         <f>A2</f>
@@ -504,19 +516,19 @@
         <v>39.68</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3">
         <f>C3-D4</f>
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -529,25 +541,25 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="str">
         <f>A3</f>
-        <v>2x</v>
+        <v>A</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G7" si="1">C4-D4</f>
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J7" si="2">C4-D5</f>
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -565,25 +577,25 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F7" si="3">A4</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -601,30 +613,30 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>1.25</v>
@@ -637,25 +649,65 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12">
+        <f>(0.2*20)/0.75</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="C12">
+        <f>20-B12-10</f>
+        <v>4.6666666666666679</v>
+      </c>
+      <c r="D12">
+        <v>5.3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="D13">
+        <v>4.67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
